--- a/CVX_Kenya/Optimization/Shading/sensitivity_sahding.xlsx
+++ b/CVX_Kenya/Optimization/Shading/sensitivity_sahding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Optimization\Shading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA62981-7581-4A93-9DB8-48AE61C93061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF3BED6-EC6E-45D3-B23F-0F78D27436C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Intervention</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>num_hect</t>
+  </si>
+  <si>
+    <t>Banana</t>
   </si>
 </sst>
 </file>
@@ -168,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -191,11 +194,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -206,10 +233,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +765,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2">
@@ -806,8 +839,8 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4">
         <v>0.26600000000000001</v>
       </c>
       <c r="H5" s="3">
@@ -878,8 +911,8 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4">
         <v>0.28199999999999997</v>
       </c>
       <c r="H6" s="3">
@@ -950,8 +983,8 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4">
         <v>0.29799999999999999</v>
       </c>
       <c r="H7" s="3">
@@ -1022,8 +1055,8 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4">
         <v>0.314</v>
       </c>
       <c r="H8" s="3">
@@ -1094,8 +1127,8 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4">
         <v>0.33</v>
       </c>
       <c r="H9" s="3">
@@ -1166,10 +1199,10 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>1800</v>
       </c>
       <c r="H10" s="3">
@@ -1240,8 +1273,8 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4">
         <v>1940</v>
       </c>
       <c r="H11" s="3">
@@ -1312,8 +1345,8 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4">
         <v>2080</v>
       </c>
       <c r="H12" s="3">
@@ -1384,8 +1417,8 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4">
         <v>2220</v>
       </c>
       <c r="H13" s="3">
@@ -1456,8 +1489,8 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4">
         <v>2360</v>
       </c>
       <c r="H14" s="3">
@@ -1528,8 +1561,8 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4">
         <v>2500</v>
       </c>
       <c r="H15" s="3">
@@ -1599,10 +1632,373 @@
         <v>-1.310704321134835</v>
       </c>
     </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1.00000015925616</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.61077733058482409</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.61077723331478717</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.63725814495874</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2.327894559130073E-3</v>
+      </c>
+      <c r="M16" s="3">
+        <v>4.8943104411591776E-4</v>
+      </c>
+      <c r="N16" s="3">
+        <v>3.6518928027362563E-5</v>
+      </c>
+      <c r="O16" s="3">
+        <v>5.4223283659666777E-2</v>
+      </c>
+      <c r="P16" s="3">
+        <v>5.236644484102726E-2</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>3.0712924897670749E-2</v>
+      </c>
+      <c r="R16" s="3">
+        <v>6.1807718884665519E-4</v>
+      </c>
+      <c r="S16" s="3">
+        <v>9.1856732979067601E-4</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1.7220972040377092E-5</v>
+      </c>
+      <c r="U16" s="3">
+        <v>6.4913946902379394E-2</v>
+      </c>
+      <c r="V16" s="3">
+        <v>9.7205753903836012E-2</v>
+      </c>
+      <c r="W16" s="3">
+        <v>4.09148377366364E-3</v>
+      </c>
+      <c r="X16" s="3">
+        <v>-4.5939813993754797E-2</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>-8.8700535525276791E-3</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>-7.1315758850687416E-4</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>-1.0195517262909559</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>-0.51705274404957891</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>-1.043237413046882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6">
+        <v>16.25</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1.00000015925616</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.66759319137781858</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.66759308505950721</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.497918451193758</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2.5925543595803902E-3</v>
+      </c>
+      <c r="M17" s="3">
+        <v>5.3242602007230744E-4</v>
+      </c>
+      <c r="N17" s="3">
+        <v>4.574923514155671E-5</v>
+      </c>
+      <c r="O17" s="3">
+        <v>5.9014475904405117E-2</v>
+      </c>
+      <c r="P17" s="3">
+        <v>5.684127495624125E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>3.6442413460463292E-2</v>
+      </c>
+      <c r="R17" s="3">
+        <v>6.1807718884665519E-4</v>
+      </c>
+      <c r="S17" s="3">
+        <v>9.1856732979067601E-4</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1.7220972040377092E-5</v>
+      </c>
+      <c r="U17" s="3">
+        <v>6.4913946902379394E-2</v>
+      </c>
+      <c r="V17" s="3">
+        <v>9.7205753903836012E-2</v>
+      </c>
+      <c r="W17" s="3">
+        <v>4.09148377366364E-3</v>
+      </c>
+      <c r="X17" s="3">
+        <v>-5.1233010002761148E-2</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>-9.7299530716554727E-3</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>-8.9776373079075711E-4</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>-1.1153755711857229</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>-0.6316425153054297</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>-1.1327340153511609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.00000015925616</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.72440904472023249</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.72440892935364798</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.3804357725024841</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2.857214116374962E-3</v>
+      </c>
+      <c r="M18" s="3">
+        <v>5.754209869337501E-4</v>
+      </c>
+      <c r="N18" s="3">
+        <v>5.497953861777205E-5</v>
+      </c>
+      <c r="O18" s="3">
+        <v>6.3805667217820883E-2</v>
+      </c>
+      <c r="P18" s="3">
+        <v>6.1316104838624597E-2</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>4.2171901557594538E-2</v>
+      </c>
+      <c r="R18" s="3">
+        <v>6.1807718884665519E-4</v>
+      </c>
+      <c r="S18" s="3">
+        <v>9.1856732979067601E-4</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1.7220972040377092E-5</v>
+      </c>
+      <c r="U18" s="3">
+        <v>6.4913946902379394E-2</v>
+      </c>
+      <c r="V18" s="3">
+        <v>9.7205753903836012E-2</v>
+      </c>
+      <c r="W18" s="3">
+        <v>4.09148377366364E-3</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-5.6526205138652592E-2</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-1.0589852408884329E-2</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-1.0823698003150639E-3</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>-1.211199397454038</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-0.74623227724805474</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>-1.2222306129988281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6">
+        <v>18.75</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1.00000015925616</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.78122489061206579</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.78122476619720926</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1.280041344397886</v>
+      </c>
+      <c r="L19" s="3">
+        <v>3.1218738731695339E-3</v>
+      </c>
+      <c r="M19" s="3">
+        <v>6.1841595379519276E-4</v>
+      </c>
+      <c r="N19" s="3">
+        <v>6.4209845731966197E-5</v>
+      </c>
+      <c r="O19" s="3">
+        <v>6.8596858298406005E-2</v>
+      </c>
+      <c r="P19" s="3">
+        <v>6.5790933789685369E-2</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>4.7901388723403222E-2</v>
+      </c>
+      <c r="R19" s="3">
+        <v>6.1807718884665519E-4</v>
+      </c>
+      <c r="S19" s="3">
+        <v>9.1856732979067601E-4</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1.7220972040377092E-5</v>
+      </c>
+      <c r="U19" s="3">
+        <v>6.4913946902379394E-2</v>
+      </c>
+      <c r="V19" s="3">
+        <v>9.7205753903836012E-2</v>
+      </c>
+      <c r="W19" s="3">
+        <v>4.09148377366364E-3</v>
+      </c>
+      <c r="X19" s="3">
+        <v>-6.1819400274544023E-2</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>-1.1449751746113179E-2</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>-1.2669759425989471E-3</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>-1.3070232190657409</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>-0.8608220205642283</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>-1.311727192020044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="7">
+        <v>20</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1.00000015925616</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.8380407327786088</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.83804059931548081</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1.193259611547232</v>
+      </c>
+      <c r="L20" s="3">
+        <v>3.3865335572045301E-3</v>
+      </c>
+      <c r="M20" s="3">
+        <v>6.614109079237096E-4</v>
+      </c>
+      <c r="N20" s="3">
+        <v>7.3440149208181538E-5</v>
+      </c>
+      <c r="O20" s="3">
+        <v>7.338804891332984E-2</v>
+      </c>
+      <c r="P20" s="3">
+        <v>7.0265762275084853E-2</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>5.3630875423550613E-2</v>
+      </c>
+      <c r="R20" s="3">
+        <v>6.1807718884665519E-4</v>
+      </c>
+      <c r="S20" s="3">
+        <v>9.1856732979067601E-4</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1.7220972040377092E-5</v>
+      </c>
+      <c r="U20" s="3">
+        <v>6.4913946902379394E-2</v>
+      </c>
+      <c r="V20" s="3">
+        <v>9.7205753903836012E-2</v>
+      </c>
+      <c r="W20" s="3">
+        <v>4.09148377366364E-3</v>
+      </c>
+      <c r="X20" s="3">
+        <v>-6.7112593955243938E-2</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>-1.2309650828683519E-2</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>-1.4515820121232541E-3</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>-1.402847031364217</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>-0.9754117545671761</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>-1.401223761728033</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
